--- a/biology/Médecine/Alexander_Monro_(1697-1767)/Alexander_Monro_(1697-1767).xlsx
+++ b/biology/Médecine/Alexander_Monro_(1697-1767)/Alexander_Monro_(1697-1767).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alexander Monro (dit primus[1]) est un médecin britannique, né le 8 septembre 1697 à Londres et mort le 10 juillet 1767.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alexander Monro (dit primus) est un médecin britannique, né le 8 septembre 1697 à Londres et mort le 10 juillet 1767.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait des études de médecine à Édimbourg. À Londres, il suit les cours de Francis Hauksbee (1666–1713) et de William Whiston (1667–1752). Il suit les dissections de William Cheselden (1688–1752) à Londres et de Herman Boerhaave (1668–1738) à Leyde.
 Il enseigne l’anatomie et la chirurgie à l’école de chirurgie en 1719 et est le premier professeur d’anatomie de l’université d’Édimbourg de 1720 à 1764.
-Il est l’auteur d’Osteology, A treatise on the anatomy of the human bones qui connaît six éditions jusqu’en 1758, An Account of the Inoculation of Small-pox in Scotland[2] en 1764. Ses travaux sont publiés en recueil en 1781.
+Il est l’auteur d’Osteology, A treatise on the anatomy of the human bones qui connaît six éditions jusqu’en 1758, An Account of the Inoculation of Small-pox in Scotland en 1764. Ses travaux sont publiés en recueil en 1781.
 Il démontre que la jaunisse est causée par l’obstruction du conduit biliaire.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Publications (liste partielle)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Osteology, A treatise on the anatomy of the human bones with An account of the reciprocal motions of the heart and A description of the human lacteal sac and duct — En ligne : la 3e  éd. corrigée et augmentée, 1741.
 An Account of the inoculation of small-pox in Scotland, 1764</t>
